--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepi\eclipse-workspace2\Milestoneframework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepi\eclipse-workspace2\HybridFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CF0BCC-18BD-4740-BCD9-281171E3992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CF1488-A092-47F1-8B22-DA73BDEE387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Email</t>
   </si>
@@ -126,10 +126,16 @@
     <t>Greaterthan500000</t>
   </si>
   <si>
-    <t>2:30 PM</t>
-  </si>
-  <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>7:30 PM</t>
+  </si>
+  <si>
+    <t>4236</t>
+  </si>
+  <si>
+    <t>8987451298</t>
   </si>
 </sst>
 </file>
@@ -534,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,8 +570,8 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
-        <v>1111111111</v>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -637,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -645,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -668,8 +674,8 @@
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7">
-        <v>4657</v>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,21 +730,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C4913E19633C4488084865B5E80F695" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="87fbb1ebceddc42f1a5a7d66b9f04e75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a16323ac-6004-4652-9b47-f8fbbcbcb755" xmlns:ns4="670bef40-1110-41e1-89cf-e9a09d0abced" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1665673215442741f8e1b7f75eab3056" ns3:_="" ns4:_="">
     <xsd:import namespace="a16323ac-6004-4652-9b47-f8fbbcbcb755"/>
@@ -935,10 +926,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3978783-9872-43A5-AE62-4B09DDED00D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE6F297-1033-4604-A604-4626C88BE0D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a16323ac-6004-4652-9b47-f8fbbcbcb755"/>
+    <ds:schemaRef ds:uri="670bef40-1110-41e1-89cf-e9a09d0abced"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -961,20 +978,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE6F297-1033-4604-A604-4626C88BE0D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3978783-9872-43A5-AE62-4B09DDED00D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a16323ac-6004-4652-9b47-f8fbbcbcb755"/>
-    <ds:schemaRef ds:uri="670bef40-1110-41e1-89cf-e9a09d0abced"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>